--- a/with logs for unschedule with saturday sunday/excel_schedules/room_138_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_138_genetic_schedule.xlsx
@@ -588,7 +588,35 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>PH 320 - Physics
 2A
@@ -596,43 +624,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
+      <c r="H17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -640,6 +638,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
+      <c r="H18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -647,6 +646,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="H19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
